--- a/3 курс/5 семестр/ТСиСА/Практические работы/7/TSiSA_L7.xlsx
+++ b/3 курс/5 семестр/ТСиСА/Практические работы/7/TSiSA_L7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDS\Documents\Учеба\Теория систем и системный анализ\Лаб7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luzinsan\TUSUR\tusur\3 курс\5 семестр\ТСиСА\Практические работы\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12477AB2-1966-43F1-AB2C-0745447DC476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F91289-8223-4B2F-81CF-0C121AC0FF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -686,7 +685,7 @@
   <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/3 курс/5 семестр/ТСиСА/Практические работы/7/TSiSA_L7.xlsx
+++ b/3 курс/5 семестр/ТСиСА/Практические работы/7/TSiSA_L7.xlsx
@@ -1,41 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luzinsan\Documents\TUSUR_learn\3 курс\5 семестр\ТСиСА\Практические работы\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luzinsan\TUSUR\tusur\3 курс\5 семестр\ТСиСА\Практические работы\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5533F279-578B-49B4-BD64-00AD0EE4C5E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB18032-6119-451C-A80D-AA550D848709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="1665" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Параметры ФП" sheetId="2" r:id="rId2"/>
+    <sheet name="График ФП" sheetId="3" r:id="rId3"/>
+    <sheet name="Нечёткое оценивание" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>µ Бюджетный (x)</t>
-  </si>
-  <si>
-    <t>µ Средний (x)</t>
-  </si>
-  <si>
-    <t>µ Премиальный (x)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>x ∈ X</t>
   </si>
@@ -60,12 +62,58 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>µ Бюджетная (x)</t>
+  </si>
+  <si>
+    <t>µ Средняя (x)</t>
+  </si>
+  <si>
+    <t>µ Премиальная (x)</t>
+  </si>
+  <si>
+    <t>Объект</t>
+  </si>
+  <si>
+    <t>Фактическая стоимость</t>
+  </si>
+  <si>
+    <t>Midea MPC-6002</t>
+  </si>
+  <si>
+    <t>Polaris PMC 5040</t>
+  </si>
+  <si>
+    <t>Redmond RMC M166</t>
+  </si>
+  <si>
+    <t>Polaris РМС 0525</t>
+  </si>
+  <si>
+    <t>Чёткое значение</t>
+  </si>
+  <si>
+    <t>Нечёткие значения</t>
+  </si>
+  <si>
+    <t>Бюджетный</t>
+  </si>
+  <si>
+    <t>Средний</t>
+  </si>
+  <si>
+    <t>Премиальный</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +138,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -283,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -292,140 +347,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -442,137 +382,147 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,7 +610,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2745888450398875E-2"/>
+          <c:y val="0.14734257307846513"/>
+          <c:w val="0.88767720736437394"/>
+          <c:h val="0.74554243890017591"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -668,7 +628,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Бюджетный</c:v>
+            <c:v>Бюджетная</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -695,7 +655,7 @@
             <c:numRef>
               <c:f>'Исходные данные'!$B$2:$W$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.95</c:v>
@@ -777,7 +737,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Средний</c:v>
+            <c:v>Средняя</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -804,7 +764,7 @@
             <c:numRef>
               <c:f>'Исходные данные'!$B$3:$W$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -886,7 +846,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Премиальный</c:v>
+            <c:v>Премиальная</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -913,7 +873,7 @@
             <c:numRef>
               <c:f>'Исходные данные'!$B$4:$W$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1143,7 +1103,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1174,6 +1134,683 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="403312792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> функции принадлежности</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3357896447597807E-2"/>
+          <c:y val="0.17548763261503322"/>
+          <c:w val="0.88684644164721171"/>
+          <c:h val="0.68396368856201151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Бюджетная</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'График ФП'!$B$2:$W$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78947368421052633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52631578947368418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26315789473684209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0513-4CBC-AAB7-DED1ECA5272C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Средняя</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'График ФП'!$B$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13793103448275862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48275862068965519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65517241379310343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82758620689655171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0513-4CBC-AAB7-DED1ECA5272C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Премиальная</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'График ФП'!$B$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0513-4CBC-AAB7-DED1ECA5272C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1910381407"/>
+        <c:axId val="1915110735"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1910381407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1915110735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1915110735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1910381407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1299,6 +1936,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -1848,20 +2522,569 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>21021</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1869,6 +3092,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80AB20F8-C934-4C1B-BA1A-2C1CA8EF607A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11943</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>763</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>64477</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F6A186-185C-4213-8E05-C6F01C4D9623}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,88 +3418,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="7">
+    <row r="1" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="7">
         <v>5</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>10</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="9">
         <v>15</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="10">
         <v>20</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="11">
         <v>25</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="12">
         <v>30</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="13">
         <v>35</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="14">
         <v>40</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="15">
         <v>45</v>
       </c>
-      <c r="L1" s="17">
+      <c r="L1" s="16">
         <v>50</v>
       </c>
-      <c r="M1" s="18">
+      <c r="M1" s="17">
         <v>55</v>
       </c>
-      <c r="N1" s="19">
+      <c r="N1" s="18">
         <v>60</v>
       </c>
-      <c r="O1" s="20">
+      <c r="O1" s="19">
         <v>65</v>
       </c>
-      <c r="P1" s="21">
+      <c r="P1" s="20">
         <v>70</v>
       </c>
-      <c r="Q1" s="22">
+      <c r="Q1" s="21">
         <v>75</v>
       </c>
-      <c r="R1" s="23">
+      <c r="R1" s="22">
         <v>80</v>
       </c>
-      <c r="S1" s="24">
+      <c r="S1" s="23">
         <v>85</v>
       </c>
-      <c r="T1" s="25">
+      <c r="T1" s="24">
         <v>90</v>
       </c>
-      <c r="U1" s="26">
+      <c r="U1" s="25">
         <v>95</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="26">
         <v>100</v>
       </c>
-      <c r="W1" s="28">
+      <c r="W1" s="27">
         <v>105</v>
       </c>
       <c r="X1" s="3"/>
@@ -2249,220 +3509,220 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
     </row>
-    <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="30">
+    <row r="2" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="43">
         <v>0.95</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="43">
         <v>0.75</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="43">
         <v>0.5</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="44">
         <v>0.25</v>
       </c>
-      <c r="F2" s="32">
-        <v>0</v>
-      </c>
-      <c r="G2" s="32">
-        <v>0</v>
-      </c>
-      <c r="H2" s="32">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32">
-        <v>0</v>
-      </c>
-      <c r="J2" s="32">
-        <v>0</v>
-      </c>
-      <c r="K2" s="32">
-        <v>0</v>
-      </c>
-      <c r="L2" s="32">
-        <v>0</v>
-      </c>
-      <c r="M2" s="32">
-        <v>0</v>
-      </c>
-      <c r="N2" s="32">
-        <v>0</v>
-      </c>
-      <c r="O2" s="32">
-        <v>0</v>
-      </c>
-      <c r="P2" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="32">
-        <v>0</v>
-      </c>
-      <c r="R2" s="32">
-        <v>0</v>
-      </c>
-      <c r="S2" s="32">
-        <v>0</v>
-      </c>
-      <c r="T2" s="33">
-        <v>0</v>
-      </c>
-      <c r="U2" s="33">
-        <v>0</v>
-      </c>
-      <c r="V2" s="33">
-        <v>0</v>
-      </c>
-      <c r="W2" s="33">
+      <c r="F2" s="45">
+        <v>0</v>
+      </c>
+      <c r="G2" s="45">
+        <v>0</v>
+      </c>
+      <c r="H2" s="45">
+        <v>0</v>
+      </c>
+      <c r="I2" s="45">
+        <v>0</v>
+      </c>
+      <c r="J2" s="45">
+        <v>0</v>
+      </c>
+      <c r="K2" s="45">
+        <v>0</v>
+      </c>
+      <c r="L2" s="45">
+        <v>0</v>
+      </c>
+      <c r="M2" s="45">
+        <v>0</v>
+      </c>
+      <c r="N2" s="45">
+        <v>0</v>
+      </c>
+      <c r="O2" s="45">
+        <v>0</v>
+      </c>
+      <c r="P2" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="45">
+        <v>0</v>
+      </c>
+      <c r="R2" s="45">
+        <v>0</v>
+      </c>
+      <c r="S2" s="45">
+        <v>0</v>
+      </c>
+      <c r="T2" s="46">
+        <v>0</v>
+      </c>
+      <c r="U2" s="46">
+        <v>0</v>
+      </c>
+      <c r="V2" s="46">
+        <v>0</v>
+      </c>
+      <c r="W2" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="45">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47">
+        <v>0.15</v>
+      </c>
+      <c r="D3" s="48">
+        <v>0.31</v>
+      </c>
+      <c r="E3" s="43">
+        <v>0.46</v>
+      </c>
+      <c r="F3" s="43">
+        <v>0.62</v>
+      </c>
+      <c r="G3" s="43">
+        <v>0.77</v>
+      </c>
+      <c r="H3" s="43">
+        <v>0.92</v>
+      </c>
+      <c r="I3" s="43">
+        <v>0.92</v>
+      </c>
+      <c r="J3" s="43">
+        <v>0.77</v>
+      </c>
+      <c r="K3" s="43">
+        <v>0.62</v>
+      </c>
+      <c r="L3" s="43">
+        <v>0.46</v>
+      </c>
+      <c r="M3" s="49">
+        <v>0.31</v>
+      </c>
+      <c r="N3" s="50">
+        <v>0.15</v>
+      </c>
+      <c r="O3" s="45">
+        <v>0</v>
+      </c>
+      <c r="P3" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="45">
+        <v>0</v>
+      </c>
+      <c r="R3" s="45">
+        <v>0</v>
+      </c>
+      <c r="S3" s="45">
+        <v>0</v>
+      </c>
+      <c r="T3" s="45">
+        <v>0</v>
+      </c>
+      <c r="U3" s="45">
+        <v>0</v>
+      </c>
+      <c r="V3" s="45">
+        <v>0</v>
+      </c>
+      <c r="W3" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="45">
+        <v>0</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0</v>
+      </c>
+      <c r="D4" s="45">
+        <v>0</v>
+      </c>
+      <c r="E4" s="45">
+        <v>0</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0</v>
+      </c>
+      <c r="I4" s="46">
+        <v>0</v>
+      </c>
+      <c r="J4" s="51">
+        <v>0.38</v>
+      </c>
+      <c r="K4" s="52">
+        <v>0.43</v>
+      </c>
+      <c r="L4" s="53">
+        <v>0.48</v>
+      </c>
+      <c r="M4" s="53">
+        <v>0.52</v>
+      </c>
+      <c r="N4" s="53">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O4" s="53">
+        <v>0.62</v>
+      </c>
+      <c r="P4" s="53">
+        <v>0.67</v>
+      </c>
+      <c r="Q4" s="53">
+        <v>0.71</v>
+      </c>
+      <c r="R4" s="53">
+        <v>0.76</v>
+      </c>
+      <c r="S4" s="53">
+        <v>0.81</v>
+      </c>
+      <c r="T4" s="53">
+        <v>0.86</v>
+      </c>
+      <c r="U4" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="V4" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="W4" s="53">
         <v>1</v>
       </c>
-      <c r="B3" s="32">
-        <v>0</v>
-      </c>
-      <c r="C3" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="D3" s="35">
-        <v>0.31</v>
-      </c>
-      <c r="E3" s="30">
-        <v>0.46</v>
-      </c>
-      <c r="F3" s="30">
-        <v>0.62</v>
-      </c>
-      <c r="G3" s="30">
-        <v>0.77</v>
-      </c>
-      <c r="H3" s="30">
-        <v>0.92</v>
-      </c>
-      <c r="I3" s="30">
-        <v>0.92</v>
-      </c>
-      <c r="J3" s="30">
-        <v>0.77</v>
-      </c>
-      <c r="K3" s="30">
-        <v>0.62</v>
-      </c>
-      <c r="L3" s="30">
-        <v>0.46</v>
-      </c>
-      <c r="M3" s="36">
-        <v>0.31</v>
-      </c>
-      <c r="N3" s="37">
-        <v>0.15</v>
-      </c>
-      <c r="O3" s="32">
-        <v>0</v>
-      </c>
-      <c r="P3" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="32">
-        <v>0</v>
-      </c>
-      <c r="R3" s="32">
-        <v>0</v>
-      </c>
-      <c r="S3" s="32">
-        <v>0</v>
-      </c>
-      <c r="T3" s="32">
-        <v>0</v>
-      </c>
-      <c r="U3" s="32">
-        <v>0</v>
-      </c>
-      <c r="V3" s="32">
-        <v>0</v>
-      </c>
-      <c r="W3" s="32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0</v>
-      </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="32">
-        <v>0</v>
-      </c>
-      <c r="E4" s="32">
-        <v>0</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0</v>
-      </c>
-      <c r="G4" s="33">
-        <v>0</v>
-      </c>
-      <c r="H4" s="33">
-        <v>0</v>
-      </c>
-      <c r="I4" s="33">
-        <v>0</v>
-      </c>
-      <c r="J4" s="38">
-        <v>0.38</v>
-      </c>
-      <c r="K4" s="39">
-        <v>0.43</v>
-      </c>
-      <c r="L4" s="40">
-        <v>0.48</v>
-      </c>
-      <c r="M4" s="41">
-        <v>0.52</v>
-      </c>
-      <c r="N4" s="40">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="O4" s="40">
-        <v>0.62</v>
-      </c>
-      <c r="P4" s="40">
-        <v>0.67</v>
-      </c>
-      <c r="Q4" s="40">
-        <v>0.71</v>
-      </c>
-      <c r="R4" s="40">
-        <v>0.76</v>
-      </c>
-      <c r="S4" s="40">
-        <v>0.81</v>
-      </c>
-      <c r="T4" s="40">
-        <v>0.86</v>
-      </c>
-      <c r="U4" s="40">
-        <v>0.9</v>
-      </c>
-      <c r="V4" s="40">
-        <v>0.95</v>
-      </c>
-      <c r="W4" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="5"/>
@@ -2476,26 +3736,22 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2504,7 +3760,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2522,98 +3778,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1673A176-7747-4638-A7A2-2F9B4F8516BE}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="D2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
+      <c r="E2" s="41" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="46" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="46" t="s">
+      <c r="C3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="41">
+        <v>1</v>
+      </c>
+      <c r="E3" s="41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="41">
+        <v>1</v>
+      </c>
+      <c r="C4" s="41">
+        <v>30</v>
+      </c>
+      <c r="D4" s="41">
+        <v>35</v>
+      </c>
+      <c r="E4" s="41">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="46" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="46">
-        <v>5</v>
-      </c>
-      <c r="D3" s="46">
-        <v>10</v>
-      </c>
-      <c r="E3" s="46">
-        <v>20</v>
+      <c r="B5" s="41">
+        <v>35</v>
+      </c>
+      <c r="C5" s="41">
+        <v>40</v>
+      </c>
+      <c r="D5" s="41">
+        <v>105</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="46">
-        <v>15</v>
-      </c>
-      <c r="C4" s="46">
-        <v>20</v>
-      </c>
-      <c r="D4" s="46">
-        <v>35</v>
-      </c>
-      <c r="E4" s="46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="46">
-        <v>55</v>
-      </c>
-      <c r="C5" s="46">
-        <v>75</v>
-      </c>
-      <c r="D5" s="46">
-        <v>90</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="6" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -2622,4 +3879,576 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B82F431-ADAB-4A95-8E15-091F561A41CF}">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:W4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9">
+        <v>15</v>
+      </c>
+      <c r="F1" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1" s="11">
+        <v>25</v>
+      </c>
+      <c r="H1" s="12">
+        <v>30</v>
+      </c>
+      <c r="I1" s="13">
+        <v>35</v>
+      </c>
+      <c r="J1" s="14">
+        <v>40</v>
+      </c>
+      <c r="K1" s="15">
+        <v>45</v>
+      </c>
+      <c r="L1" s="16">
+        <v>50</v>
+      </c>
+      <c r="M1" s="17">
+        <v>55</v>
+      </c>
+      <c r="N1" s="18">
+        <v>60</v>
+      </c>
+      <c r="O1" s="19">
+        <v>65</v>
+      </c>
+      <c r="P1" s="20">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="21">
+        <v>75</v>
+      </c>
+      <c r="R1" s="22">
+        <v>80</v>
+      </c>
+      <c r="S1" s="23">
+        <v>85</v>
+      </c>
+      <c r="T1" s="24">
+        <v>90</v>
+      </c>
+      <c r="U1" s="25">
+        <v>95</v>
+      </c>
+      <c r="V1" s="31">
+        <v>100</v>
+      </c>
+      <c r="W1" s="32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="30">
+        <f>IF(B1 &lt; 20, (20-B1)/19, 0 )</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
+        <f t="shared" ref="C2:W2" si="0">IF(C1 &lt; 20, (20-C1)/19, 0 )</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="D2" s="30">
+        <f t="shared" si="0"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="E2" s="30">
+        <f t="shared" si="0"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="F2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="30">
+        <f>IF(B1 &lt; 30, (B1-1)/29, IF(B1 &lt;= 35, 0.92, IF(B1 &lt;65, (65 - B1) / 30, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="30">
+        <f>IF(C1 &lt; 30, (C1-1)/29, IF(C1 &lt;= 35, 0.92, IF(C1 &lt;65, (65 - C1) / 30, 0)))</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="D3" s="30">
+        <f>IF(D1 &lt; 30, (D1-1)/29, IF(D1 &lt;= 35, 0.92, IF(D1 &lt;65, (65 - D1) / 30, 0)))</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="E3" s="30">
+        <f>IF(E1 &lt; 30, (E1-1)/29, IF(E1 &lt;= 35, 0.92, IF(E1 &lt;65, (65 - E1) / 30, 0)))</f>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="F3" s="30">
+        <f>IF(F1 &lt; 30, (F1-1)/29, IF(F1 &lt;= 35, 0.92, IF(F1 &lt;65, (65 - F1) / 30, 0)))</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="G3" s="30">
+        <f>IF(G1 &lt; 30, (G1-1)/29, IF(G1 &lt;= 35, 0.92, IF(G1 &lt;65, (65 - G1) / 30, 0)))</f>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="H3" s="30">
+        <f>IF(H1 &lt; 30, (H1-1)/29, IF(H1 &lt;= 35, 0.92, IF(H1 &lt;65, (65 - H1) / 30, 0)))</f>
+        <v>0.92</v>
+      </c>
+      <c r="I3" s="30">
+        <f>IF(I1 &lt; 30, (I1-1)/29, IF(I1 &lt;= 35, 0.92, IF(I1 &lt;65, (65 - I1) / 30, 0)))</f>
+        <v>0.92</v>
+      </c>
+      <c r="J3" s="30">
+        <f>IF(J1 &lt; 30, (J1-1)/29, IF(J1 &lt;= 35, 0.92, IF(J1 &lt;65, (65 - J1) / 30, 0)))</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K3" s="30">
+        <f>IF(K1 &lt; 30, (K1-1)/29, IF(K1 &lt;= 35, 0.92, IF(K1 &lt;65, (65 - K1) / 30, 0)))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L3" s="30">
+        <f>IF(L1 &lt; 30, (L1-1)/29, IF(L1 &lt;= 35, 0.92, IF(L1 &lt;65, (65 - L1) / 30, 0)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="30">
+        <f>IF(M1 &lt; 30, (M1-1)/29, IF(M1 &lt;= 35, 0.92, IF(M1 &lt;65, (65 - M1) / 30, 0)))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N3" s="30">
+        <f>IF(N1 &lt; 30, (N1-1)/29, IF(N1 &lt;= 35, 0.92, IF(N1 &lt;65, (65 - N1) / 30, 0)))</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O3" s="30">
+        <f>IF(O1 &lt; 30, (O1-1)/29, IF(O1 &lt;= 35, 0.92, IF(O1 &lt;65, (65 - O1) / 30, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="30">
+        <f>IF(P1 &lt; 30, (P1-1)/29, IF(P1 &lt;= 35, 0.92, IF(P1 &lt;65, (65 - P1) / 30, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="30">
+        <f>IF(Q1 &lt; 30, (Q1-1)/29, IF(Q1 &lt;= 35, 0.92, IF(Q1 &lt;65, (65 - Q1) / 30, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="30">
+        <f>IF(R1 &lt; 30, (R1-1)/29, IF(R1 &lt;= 35, 0.92, IF(R1 &lt;65, (65 - R1) / 30, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="30">
+        <f>IF(S1 &lt; 30, (S1-1)/29, IF(S1 &lt;= 35, 0.92, IF(S1 &lt;65, (65 - S1) / 30, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="30">
+        <f>IF(T1 &lt; 30, (T1-1)/29, IF(T1 &lt;= 35, 0.92, IF(T1 &lt;65, (65 - T1) / 30, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="30">
+        <f>IF(U1 &lt; 30, (U1-1)/29, IF(U1 &lt;= 35, 0.92, IF(U1 &lt;65, (65 - U1) / 30, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="30">
+        <f>IF(V1 &lt; 30, (V1-1)/29, IF(V1 &lt;= 35, 0.92, IF(V1 &lt;65, (65 - V1) / 30, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="30">
+        <f>IF(W1 &lt; 30, (W1-1)/29, IF(W1 &lt;= 35, 0.92, IF(W1 &lt;65, (65 - W1) / 30, 0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="30">
+        <f>IF(B1 &lt; 35, 0,  (B1-35)/70)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="30">
+        <f>IF(C1 &lt; 35, 0,  (C1-35)/70)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <f>IF(D1 &lt; 35, 0,  (D1-35)/70)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <f>IF(E1 &lt; 35, 0,  (E1-35)/70)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <f>IF(F1 &lt; 35, 0,  (F1-35)/70)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <f>IF(G1 &lt; 35, 0,  (G1-35)/70)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
+        <f>IF(H1 &lt; 35, 0,  (H1-35)/70)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
+        <f>IF(I1 &lt; 35, 0,  (I1-35)/70)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="30">
+        <f>IF(J1 &lt; 35, 0,  (J1-35)/70)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="K4" s="30">
+        <f>IF(K1 &lt; 35, 0,  (K1-35)/70)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L4" s="30">
+        <f>IF(L1 &lt; 35, 0,  (L1-35)/70)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="M4" s="30">
+        <f>IF(M1 &lt; 35, 0,  (M1-35)/70)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N4" s="30">
+        <f>IF(N1 &lt; 35, 0,  (N1-35)/70)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="O4" s="30">
+        <f>IF(O1 &lt; 35, 0,  (O1-35)/70)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="P4" s="30">
+        <f>IF(P1 &lt; 35, 0,  (P1-35)/70)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="30">
+        <f>IF(Q1 &lt; 35, 0,  (Q1-35)/70)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R4" s="30">
+        <f>IF(R1 &lt; 35, 0,  (R1-35)/70)</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="S4" s="30">
+        <f>IF(S1 &lt; 35, 0,  (S1-35)/70)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="T4" s="30">
+        <f>IF(T1 &lt; 35, 0,  (T1-35)/70)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U4" s="30">
+        <f>IF(U1 &lt; 35, 0,  (U1-35)/70)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V4" s="30">
+        <f>IF(V1 &lt; 35, 0,  (V1-35)/70)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="W4" s="30">
+        <f>IF(W1 &lt; 35, 0,  (W1-35)/70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <conditionalFormatting sqref="B2:W4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34CC0A8-C75E-4E60-9883-C3419561D543}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="36">
+        <v>5625</v>
+      </c>
+      <c r="C3" s="33">
+        <v>6</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="33">
+        <v>6</v>
+      </c>
+      <c r="G3" s="39">
+        <f>IF(F3 &lt; 20, (20-F3)/19, 0 )</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="H3" s="38">
+        <f>IF(F3 &lt; 30, (F3-1)/29, IF(F3 &lt;= 35, 0.92, IF(F3 &lt;65, (65 - F3) / 30, 0)))</f>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="I3" s="38">
+        <f>IF(F3 &lt; 35, 0,  (F3-35)/70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="36">
+        <v>22999</v>
+      </c>
+      <c r="C4" s="33">
+        <v>20</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="33">
+        <v>20</v>
+      </c>
+      <c r="G4" s="39">
+        <f t="shared" ref="G4:G6" si="0">IF(F4 &lt; 20, (20-F4)/19, 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="38">
+        <f t="shared" ref="H4:H6" si="1">IF(F4 &lt; 30, (F4-1)/29, IF(F4 &lt;= 35, 0.92, IF(F4 &lt;65, (65 - F4) / 30, 0)))</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="I4" s="38">
+        <f t="shared" ref="I4:I6" si="2">IF(F4 &lt; 35, 0,  (F4-35)/70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="36">
+        <v>40000</v>
+      </c>
+      <c r="C5" s="33">
+        <v>40</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="33">
+        <v>40</v>
+      </c>
+      <c r="G5" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="38">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I5" s="38">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="36">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="33">
+        <v>100</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="33">
+        <v>100</v>
+      </c>
+      <c r="G6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" si="2"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>